--- a/runManager/RunSheet_Date.xlsx
+++ b/runManager/RunSheet_Date.xlsx
@@ -1,167 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puneet.dewani\Desktop\Initial Tasks\5-11-2020\5-11-2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3801819-4443-4868-922F-17E4DD13BBA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00327B96-3864-4602-9A07-8C4852F1B06C}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Results" state="visible" r:id="rId4"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>TestCaseName</t>
   </si>
   <si>
+    <t>TestCase01</t>
+  </si>
+  <si>
+    <t>TestCase02</t>
+  </si>
+  <si>
+    <t>TestCase03</t>
+  </si>
+  <si>
+    <t>TestCase04</t>
+  </si>
+  <si>
+    <t>TestCase05</t>
+  </si>
+  <si>
+    <t>TestCase06</t>
+  </si>
+  <si>
+    <t>TestCase07</t>
+  </si>
+  <si>
+    <t>TestCase08</t>
+  </si>
+  <si>
+    <t>TestCase09</t>
+  </si>
+  <si>
+    <t>TestCase10</t>
+  </si>
+  <si>
+    <t>TestCase11</t>
+  </si>
+  <si>
+    <t>TestCase12</t>
+  </si>
+  <si>
+    <t>TestCase13</t>
+  </si>
+  <si>
+    <t>TestCase14</t>
+  </si>
+  <si>
+    <t>TestCase15</t>
+  </si>
+  <si>
+    <t>TestCase16</t>
+  </si>
+  <si>
+    <t>TestCase17</t>
+  </si>
+  <si>
+    <t>TestCase18</t>
+  </si>
+  <si>
+    <t>TestCase19</t>
+  </si>
+  <si>
+    <t>TestCase20</t>
+  </si>
+  <si>
+    <t>TestCase21</t>
+  </si>
+  <si>
+    <t>TestCase22</t>
+  </si>
+  <si>
+    <t>TestCase23</t>
+  </si>
+  <si>
+    <t>TestCase24</t>
+  </si>
+  <si>
+    <t>TestCase25</t>
+  </si>
+  <si>
+    <t>TestCase26</t>
+  </si>
+  <si>
+    <t>TestCase27</t>
+  </si>
+  <si>
+    <t>TestCase28</t>
+  </si>
+  <si>
+    <t>TestCase29</t>
+  </si>
+  <si>
+    <t>TestCase30</t>
+  </si>
+  <si>
+    <t>TestCase31</t>
+  </si>
+  <si>
+    <t>TestCase32</t>
+  </si>
+  <si>
+    <t>TestCase33</t>
+  </si>
+  <si>
+    <t>TestCase34</t>
+  </si>
+  <si>
+    <t>TestCase35</t>
+  </si>
+  <si>
+    <t>TestCase36</t>
+  </si>
+  <si>
+    <t>TestCase37</t>
+  </si>
+  <si>
+    <t>TestCase38</t>
+  </si>
+  <si>
+    <t>TestCase39</t>
+  </si>
+  <si>
+    <t>TestCase40</t>
+  </si>
+  <si>
+    <t>RunByName</t>
+  </si>
+  <si>
+    <t>RunInFolder</t>
+  </si>
+  <si>
     <t>Results</t>
-  </si>
-  <si>
-    <t>RunByName</t>
-  </si>
-  <si>
-    <t>RunInFolder</t>
-  </si>
-  <si>
-    <t>TestCase01</t>
-  </si>
-  <si>
-    <t>TestCase02</t>
-  </si>
-  <si>
-    <t>TestCase03</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>TestCase04</t>
-  </si>
-  <si>
-    <t>TestCase05</t>
-  </si>
-  <si>
-    <t>TestCase06</t>
-  </si>
-  <si>
-    <t>TestCase07</t>
-  </si>
-  <si>
-    <t>TestCase08</t>
-  </si>
-  <si>
-    <t>TestCase09</t>
-  </si>
-  <si>
-    <t>TestCase10</t>
-  </si>
-  <si>
-    <t>TestCase11</t>
-  </si>
-  <si>
-    <t>TestCase12</t>
-  </si>
-  <si>
-    <t>TestCase13</t>
-  </si>
-  <si>
-    <t>TestCase14</t>
-  </si>
-  <si>
-    <t>TestCase15</t>
-  </si>
-  <si>
-    <t>TestCase16</t>
-  </si>
-  <si>
-    <t>TestCase17</t>
-  </si>
-  <si>
-    <t>TestCase18</t>
-  </si>
-  <si>
-    <t>TestCase19</t>
-  </si>
-  <si>
-    <t>TestCase20</t>
-  </si>
-  <si>
-    <t>TestCase21</t>
-  </si>
-  <si>
-    <t>TestCase22</t>
-  </si>
-  <si>
-    <t>TestCase23</t>
-  </si>
-  <si>
-    <t>TestCase24</t>
-  </si>
-  <si>
-    <t>TestCase25</t>
-  </si>
-  <si>
-    <t>TestCase26</t>
-  </si>
-  <si>
-    <t>TestCase27</t>
-  </si>
-  <si>
-    <t>TestCase28</t>
-  </si>
-  <si>
-    <t>TestCase29</t>
-  </si>
-  <si>
-    <t>TestCase30</t>
-  </si>
-  <si>
-    <t>TestCase31</t>
-  </si>
-  <si>
-    <t>TestCase32</t>
-  </si>
-  <si>
-    <t>TestCase33</t>
-  </si>
-  <si>
-    <t>TestCase34</t>
-  </si>
-  <si>
-    <t>TestCase35</t>
-  </si>
-  <si>
-    <t>TestCase36</t>
-  </si>
-  <si>
-    <t>TestCase37</t>
-  </si>
-  <si>
-    <t>TestCase38</t>
-  </si>
-  <si>
-    <t>TestCase39</t>
-  </si>
-  <si>
-    <t>TestCase40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -207,8 +227,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,359 +542,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94B4E8D-93D4-4E5B-A479-D1627CC48C3B}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/runManager/RunSheet_Date.xlsx
+++ b/runManager/RunSheet_Date.xlsx
@@ -1,47 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puneet.dewani\Desktop\Initial Tasks\5-11-2020\5-11-2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3801819-4443-4868-922F-17E4DD13BBA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00327B96-3864-4602-9A07-8C4852F1B06C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Results" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>TestCaseName</t>
   </si>
   <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>RunByName</t>
+  </si>
+  <si>
+    <t>RunInFolder</t>
+  </si>
+  <si>
     <t>TestCase01</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Alok</t>
+  </si>
+  <si>
+    <t>Alok/Results/Regression/Run_10-Apr-2020_07-01-01_PM/Excel Results</t>
+  </si>
+  <si>
     <t>TestCase02</t>
   </si>
   <si>
+    <t>Passed</t>
+  </si>
+  <si>
     <t>TestCase03</t>
   </si>
   <si>
@@ -154,34 +158,19 @@
   </si>
   <si>
     <t>TestCase40</t>
-  </si>
-  <si>
-    <t>RunByName</t>
-  </si>
-  <si>
-    <t>RunInFolder</t>
-  </si>
-  <si>
-    <t>Results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -227,8 +216,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,358 +531,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94B4E8D-93D4-4E5B-A479-D1627CC48C3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="A40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="A41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/runManager/RunSheet_Date.xlsx
+++ b/runManager/RunSheet_Date.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -656,41 +656,71 @@
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -710,49 +740,85 @@
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -772,17 +838,29 @@
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
